--- a/Query Optimation.xlsx
+++ b/Query Optimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03 DATAKU\sevima\Hackaton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32DDC140-E27A-4FFD-949E-4631FFE2CB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480BAD5A-3483-44C4-BE79-9310BB325B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E48B1F2-8BAF-4296-8DFA-FD0C2A0E18FD}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>0.230</t>
   </si>
   <si>
-    <t>LIMIT 5</t>
+    <t>SELECT * FROM public.programs a LEFT JOIN reviews b ON b.program_id = a.id LIMIT 5</t>
   </si>
 </sst>
 </file>
